--- a/IPtest.xlsx
+++ b/IPtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336476E8-EA08-4112-9C57-3CB1D7646B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2832E5-DF36-4EB8-8F14-27C0DAC0EADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -279,12 +279,6 @@
   </si>
   <si>
     <t>Log out Link Should Be Clicked</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Not proper</t>
   </si>
   <si>
     <t>Approved</t>
@@ -707,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,9 +775,6 @@
       </c>
       <c r="I2" t="s">
         <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,7 +923,7 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
